--- a/dataset/espza_pc_ref.xlsx
+++ b/dataset/espza_pc_ref.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Acevedo\Documents\CODIGOS\DEGRADACION\GIT\RubiCurves\Rubi_degradaciones\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Acevedo\Documents\CODIGOS\DEGRADACION\GIT\Esperanza\EsperanzaCurves\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BACD16-0D3E-4923-AD5A-4B3667021E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D52C47-A6F4-411B-923F-5E7873633D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D00D1C0C-EFE4-46AC-892E-ABD2B96ADC08}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD48422-6970-44F3-A7C7-BDA2AA9FCB64}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,497 +417,409 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>18.776</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-22.538993999999899</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>19.763633333333335</v>
+        <v>15.548999999999999</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-22.538993999999899</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B4">
-        <v>20.751266666666666</v>
+        <v>57.465000000000003</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-11.8317239999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="B5">
-        <v>21.738900000000001</v>
+        <v>91.28</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>28.603085</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="B6">
-        <v>22.726533333333332</v>
+        <v>120</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>65.736840000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="B7">
-        <v>23.714166666666667</v>
+        <v>149.75</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>90.705454999999901</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="B8">
-        <v>24.701799999999999</v>
+        <v>180.70499999999899</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>111.319319999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="B9">
-        <v>25.689433333333334</v>
+        <v>219.88</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>146.602495</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="B10">
-        <v>26.677066666666668</v>
+        <v>255.53</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>185.92192999999901</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>39</v>
+        <v>270</v>
       </c>
       <c r="B11">
-        <v>27.6647</v>
+        <v>296.33</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>230.79907999999901</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="B12">
-        <v>28.652333333333331</v>
+        <v>326.91999999999899</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>254.71737999999999</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="B13">
-        <v>29.639966666666666</v>
+        <v>362.63</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>305.54989999999998</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>42</v>
+        <v>360</v>
       </c>
       <c r="B14">
-        <v>30.627600000000001</v>
+        <v>394.81</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>335.43187</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>43</v>
+        <v>390</v>
       </c>
       <c r="B15">
-        <v>31.615233333333336</v>
+        <v>428.76</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>362.71017000000001</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>44</v>
+        <v>420</v>
       </c>
       <c r="B16">
-        <v>32.602866666666671</v>
+        <v>462.75</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>402.03753</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>45</v>
+        <v>450</v>
       </c>
       <c r="B17">
-        <v>33.590499999999999</v>
+        <v>501.69</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>440.90339999999998</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>46</v>
+        <v>480</v>
       </c>
       <c r="B18">
-        <v>34.578133333333334</v>
+        <v>532.83000000000004</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>471.37623000000002</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>47</v>
+        <v>510</v>
       </c>
       <c r="B19">
-        <v>35.565766666666669</v>
+        <v>568.20000000000005</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>497.331719999999</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>48</v>
+        <v>540</v>
       </c>
       <c r="B20">
-        <v>36.553399999999996</v>
+        <v>606.83000000000004</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>541.22495000000004</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>49</v>
+        <v>570</v>
       </c>
       <c r="B21">
-        <v>37.541033333333331</v>
+        <v>640.70000000000005</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>574.94668999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>50</v>
+        <v>600</v>
       </c>
       <c r="B22">
-        <v>38.528666666666666</v>
+        <v>668.29</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>606.09492999999998</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>51</v>
+        <v>630</v>
       </c>
       <c r="B23">
-        <v>39.516300000000001</v>
+        <v>703.01</v>
       </c>
       <c r="C23">
-        <v>1.5489220729261099</v>
+        <v>650.600089999999</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>52</v>
+        <v>660</v>
       </c>
       <c r="B24">
-        <v>40.503933333333336</v>
+        <v>738.81</v>
       </c>
       <c r="C24">
-        <v>3.0978441458522301</v>
+        <v>670.68452999999897</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>53</v>
+        <v>690</v>
       </c>
       <c r="B25">
-        <v>41.491566666666671</v>
+        <v>771.27499999999998</v>
       </c>
       <c r="C25">
-        <v>4.6467662187783496</v>
+        <v>710.71078999999895</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>54</v>
+        <v>720</v>
       </c>
       <c r="B26">
-        <v>42.479200000000006</v>
+        <v>803.74</v>
       </c>
       <c r="C26">
-        <v>6.19568829170447</v>
+        <v>740.76656500000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>55</v>
+        <v>750</v>
       </c>
       <c r="B27">
-        <v>43.466833333333334</v>
+        <v>837.13499999999999</v>
       </c>
       <c r="C27">
-        <v>7.7446103646305797</v>
+        <v>777.868065</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>56</v>
+        <v>780</v>
       </c>
       <c r="B28">
-        <v>44.454466666666669</v>
+        <v>869.63499999999999</v>
       </c>
       <c r="C28">
-        <v>9.2935324375566992</v>
+        <v>814.96412499999997</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>57</v>
+        <v>810</v>
       </c>
       <c r="B29">
-        <v>45.442099999999996</v>
+        <v>899.62</v>
       </c>
       <c r="C29">
-        <v>10.842454510482799</v>
+        <v>845.72748999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>58</v>
+        <v>840</v>
       </c>
       <c r="B30">
-        <v>46.429733333333331</v>
+        <v>937.71</v>
       </c>
       <c r="C30">
-        <v>12.391376583408899</v>
+        <v>876.92340000000002</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>59</v>
+        <v>870</v>
       </c>
       <c r="B31">
-        <v>47.417366666666666</v>
+        <v>963.64</v>
       </c>
       <c r="C31">
-        <v>13.940298656335001</v>
+        <v>908.59847499999898</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="B32">
-        <v>48.405000000000001</v>
+        <v>989.99</v>
       </c>
       <c r="C32">
-        <v>15.489220729261177</v>
+        <v>934.94847499999901</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>300</v>
+        <v>930</v>
       </c>
       <c r="B33">
-        <v>291.38599999999997</v>
+        <v>998.47</v>
       </c>
       <c r="C33">
-        <v>245.97124730332661</v>
+        <v>943.42847499999903</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>390</v>
+        <v>960</v>
       </c>
       <c r="B34">
-        <v>386.28</v>
+        <v>998.47</v>
       </c>
       <c r="C34">
-        <v>331.52614596898223</v>
+        <v>943.42847499999903</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>480</v>
+        <v>990</v>
       </c>
       <c r="B35">
-        <v>478.87400000000002</v>
+        <v>998.47</v>
       </c>
       <c r="C35">
-        <v>414.2160120460743</v>
+        <v>943.42847499999903</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>600</v>
+        <v>1020</v>
       </c>
       <c r="B36">
-        <v>594.38199999999995</v>
+        <v>998.47</v>
       </c>
       <c r="C36">
-        <v>515.16453783098063</v>
+        <v>943.42847499999903</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>780</v>
+        <v>1050</v>
       </c>
       <c r="B37">
-        <v>740.822</v>
+        <v>998.47</v>
       </c>
       <c r="C37">
-        <v>641.84800385707365</v>
+        <v>943.42847499999903</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>870</v>
+        <v>1080</v>
       </c>
       <c r="B38">
-        <v>818.67899999999997</v>
+        <v>998.47</v>
       </c>
       <c r="C38">
-        <v>709.61192041133586</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>900</v>
-      </c>
-      <c r="B39">
-        <v>845.95899999999995</v>
-      </c>
-      <c r="C39">
-        <v>736.23114551445929</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>960</v>
-      </c>
-      <c r="B40">
-        <v>898.48300000000006</v>
-      </c>
-      <c r="C40">
-        <v>782.90733430864441</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>990</v>
-      </c>
-      <c r="B41">
-        <v>922.02499999999998</v>
-      </c>
-      <c r="C41">
-        <v>804.21485195981631</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>1020</v>
-      </c>
-      <c r="B42">
-        <v>946.96500000000003</v>
-      </c>
-      <c r="C42">
-        <v>826.52660277967834</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>1050</v>
-      </c>
-      <c r="B43">
-        <v>973.48699999999997</v>
-      </c>
-      <c r="C43">
-        <v>849.85363827570643</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>1080</v>
-      </c>
-      <c r="B44">
-        <v>998.93</v>
-      </c>
-      <c r="C44">
-        <v>872.27012284369607</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>1110</v>
-      </c>
-      <c r="B45">
-        <v>1023.497</v>
-      </c>
-      <c r="C45">
-        <v>894.07252274588859</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>1200</v>
-      </c>
-      <c r="B46">
-        <v>1023.497</v>
-      </c>
-      <c r="C46">
-        <v>894.07252274588859</v>
+        <v>943.42847499999903</v>
       </c>
     </row>
   </sheetData>
